--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/63_Ordu_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/63_Ordu_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4507E1AF-01B1-450A-A419-417E25AB10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C87440-F669-4425-8F3B-88707969015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{6F5DEFE7-13B4-41F4-8D34-31295DCD1BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{3F8C5FD6-FA65-4B87-95BE-E45999EB59F0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -921,14 +921,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0D1F53F0-5B9E-42D6-9F2F-A64BAB17564D}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F1EEBEE8-A07F-477C-895A-18E6B2253092}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{3E00B821-9BBE-4011-BDA4-237A62EF5F33}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{26F13463-B034-412E-A087-7BBA7370B1D1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5410575B-2B1E-42FB-9244-3FAB793E9B48}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3308E6CD-56C4-4175-A376-BC81DAA49464}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F4092DA5-BBE6-43EA-9F2E-ACDA90E7EAE0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{49B24110-5A17-4DC1-9176-26D6ABF994FD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B5551D6E-01EA-4732-AA4B-D5A2DFC86CBF}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{27168586-7679-4C56-9534-D9900E3AEB67}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{7EB27C05-A860-4493-88A1-5A36667BBC51}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{CF5940BB-7519-473F-83A8-7448EA917CD3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A266DB8D-446C-4A71-8836-73AB42A33298}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CC8291D6-1C17-4B16-8C78-AF5809EB079D}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{9BCBD33D-7FFB-4938-B89B-94C292565DA9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A5155D3B-A0E9-47E2-99B6-8B8B23A8E4BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D208F-4D2A-4CCE-ADA1-277D7FE22607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD58D64-0A81-4CA6-8284-59F02BA57160}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF285B63-31FE-4F7F-9998-680A46C61EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD100B8B-40F9-4F58-B09A-F11CBD5D53CF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3845,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995B49E6-4127-49FA-9B88-5CB99CED669A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961468E6-3A18-44B6-AA79-0D6B58C1AF20}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5082,7 +5082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCE83C8-5BD8-41CF-A22A-684EABC99A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C647FF-44DD-450B-9EAF-7C364F81E9BB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6311,7 +6311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F67E46-A2CF-497E-BEFA-3D9654F4CBC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C7F094-A3F1-4193-AF03-D4C10AA721D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7604,7 +7604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9B70D3-A227-493A-B3A8-564566BA9E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D49C781-D8B6-41AF-81EF-56539EA2EB14}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8897,7 +8897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B291ACE0-8B74-4585-8868-EF7C6B55BF76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE90D17-8D79-4FCD-B51B-89ECC3DA27D2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10190,7 +10190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD63F1B5-2264-4DE0-87F8-BFD835974589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37427C16-CB0A-494C-91E6-1A8570014993}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11475,7 +11475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41CDB72-121C-4091-AD6B-DC43F75115AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2535F3-FF69-4642-852D-65C98614A7EA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12760,7 +12760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC66E420-D442-43B5-9927-1A484DEC951F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC372E8-390B-43B9-A688-233AF886CE33}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14033,7 +14033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B988A3-1550-4479-93A6-F28188517E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADADF195-7D3C-4C1C-B632-85C7CB98A8B3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15306,7 +15306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216F7B08-E587-4219-851B-B6ED81E6BF71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B82045-1BD4-4BA6-B839-3E365EECDBD7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
